--- a/Э АСОИУ/расчёты.xlsx
+++ b/Э АСОИУ/расчёты.xlsx
@@ -1,32 +1,619 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Учёба\8 семестр\Э АСОИУ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA54386-5B69-422D-B71C-531D073397B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="15735" yWindow="3090" windowWidth="20700" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="задача 1" sheetId="1" r:id="rId1"/>
+    <sheet name="задача 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>i1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>i2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>i3</t>
+    </r>
+  </si>
+  <si>
+    <t>В5</t>
+  </si>
+  <si>
+    <t>Триангулярное</t>
+  </si>
+  <si>
+    <t>В7</t>
+  </si>
+  <si>
+    <t>Нормальное</t>
+  </si>
+  <si>
+    <t>В17</t>
+  </si>
+  <si>
+    <t>В19</t>
+  </si>
+  <si>
+    <t>В29</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>t =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">σ = </t>
+  </si>
+  <si>
+    <t>P(x)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <t>Фактор</t>
+  </si>
+  <si>
+    <t>Значение фактора</t>
+  </si>
+  <si>
+    <t>Значение фактора (балл)</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>восток</t>
+  </si>
+  <si>
+    <t>юг</t>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">α = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">β = </t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <t>3а+8а+12а=1</t>
+  </si>
+  <si>
+    <t>23а=1</t>
+  </si>
+  <si>
+    <t>а=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k1 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">k2 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">k3 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a2 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a3 = </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +624,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -45,15 +632,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1037,586 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>90</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="M9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L10" t="str">
+        <f>C4</f>
+        <v>В5</v>
+      </c>
+      <c r="M10">
+        <f>(E4+F4+G4)/3</f>
+        <v>38.333333333333336</v>
+      </c>
+      <c r="N10">
+        <f>(G4-E4)/5</f>
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <f>N10*N10</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L14" si="0">C5</f>
+        <v>В7</v>
+      </c>
+      <c r="M11">
+        <f>(E5+4*F5+G5)/6</f>
+        <v>15</v>
+      </c>
+      <c r="N11">
+        <f>(G5-E5)/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O14" si="1">N11*N11</f>
+        <v>2.7777777777777781</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0.9</v>
+      </c>
+      <c r="F12">
+        <v>1.2825</v>
+      </c>
+      <c r="G12">
+        <f>$M$16+$M$17*F12</f>
+        <v>227.6363792853779</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>В17</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M11:M14" si="2">(E6+F6+G6)/3</f>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N11:N14" si="3">(G6-E6)/5</f>
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0.95</v>
+      </c>
+      <c r="F13">
+        <v>1.645</v>
+      </c>
+      <c r="G13">
+        <f>$M$16+$M$17*F13</f>
+        <v>229.32372495733333</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>В19</v>
+      </c>
+      <c r="M13">
+        <f>(E7+4*F7+G7)/6</f>
+        <v>101.66666666666667</v>
+      </c>
+      <c r="N13">
+        <f>(G7-E7)/6</f>
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F14">
+        <v>1.9628000000000001</v>
+      </c>
+      <c r="G14">
+        <f>$M$16+$M$17*F14</f>
+        <v>230.80300345263657</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>В29</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>38.333333333333336</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <f>SUM(M10:M14)</f>
+        <v>221.66666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <f>SQRT(SUM(N10:N14))</f>
+        <v>4.6547466812563139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FFC79F-72D6-4293-85B3-61FD6AFDC8B0}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11">
+        <v>25</v>
+      </c>
+      <c r="C3" s="11">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="11">
+        <v>135</v>
+      </c>
+      <c r="C4" s="11">
+        <v>200</v>
+      </c>
+      <c r="D4" s="11">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="11">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11">
+        <v>46</v>
+      </c>
+      <c r="C6" s="11">
+        <v>60</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11">
+        <v>65</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <f>(D4+((D3+D5+D6+D7+D8)/5)*((6-D4)/6))*10</f>
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <f>(E3+((E4+E5+E6+E7+E8)/5)*((6-E3)/6))*10</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <f>(E13-I12)/I13</f>
+        <v>69.375</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <f>100-E16</f>
+        <v>30.625</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <f>(E14-I12)/I13</f>
+        <v>69.375</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17">
+        <f>100-E17</f>
+        <v>30.625</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="18">
+        <f>1/23</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="K23">
+        <f>3*50+4*25+12.5*3</f>
+        <v>287.5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25">
+        <f>$E$23*E25</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I27" si="0">$E$23*E26</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0.17391304347826086</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f>50/K23</f>
+        <v>0.17391304347826086</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f>25/K23</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f>12.5/K23</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>